--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -16,6 +16,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">system </t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>Blobal</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,12 +351,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -16,6 +16,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="3">
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,12 +345,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="S28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
   <si>
     <t>ddd</t>
   </si>
@@ -345,39 +345,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S28"/>
+  <dimension ref="B12:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>1</v>
       </c>
@@ -394,17 +370,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>1</v>
       </c>
